--- a/public/file/template-excel-payroll/template-import-payroll_V9.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7172C190-BA56-44B9-92CE-522CF0A9CC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D16B52-4B27-4A0C-8442-70172D33AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00F9350A-47D7-468C-A490-437B046A5D73}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -54,12 +54,6 @@
     <t>KOPERASI</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
-    <t>POTONGAN LAIN-LAIN</t>
-  </si>
-  <si>
     <t>START DATE</t>
   </si>
   <si>
@@ -81,13 +75,28 @@
     <t>MEAL ALLOWANCE</t>
   </si>
   <si>
-    <t>ROMPI</t>
+    <t>POT. SERAGAM</t>
+  </si>
+  <si>
+    <t>POT. ROMPI</t>
+  </si>
+  <si>
+    <t>POT. MATERAI</t>
+  </si>
+  <si>
+    <t>POT. LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>RAPEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +183,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,45 +508,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36BC7C-25DF-4033-9DBB-4272C5E18CCF}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="15" style="12" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -535,16 +556,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -552,27 +573,102 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
